--- a/BalanceSheet/KEYS_bal.xlsx
+++ b/BalanceSheet/KEYS_bal.xlsx
@@ -435,16 +435,16 @@
         <v>760000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>18000000.0</v>
+        <v>757000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-28000000.0</v>
+        <v>778000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-27000000.0</v>
+        <v>756000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-36000000.0</v>
+        <v>737000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>705000000.0</v>
@@ -1498,19 +1498,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>4000000.0</v>
+        <v>228000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>27000000.0</v>
+        <v>224000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>7000000.0</v>
+        <v>193000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-41000000.0</v>
+        <v>182000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-26000000.0</v>
+        <v>224000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>253000000.0</v>
@@ -2800,19 +2800,19 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1000000.0</v>
+        <v>-700000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>34000000.0</v>
+        <v>-740000000.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>-20000000.0</v>
+        <v>-746000000.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>9000000.0</v>
+        <v>-726000000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>18000000.0</v>
+        <v>-737000000.0</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
